--- a/日次スケジュール.xlsx
+++ b/日次スケジュール.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="34">
   <si>
     <t>No.</t>
   </si>
@@ -141,12 +141,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="####&quot;年&quot;"/>
-    <numFmt numFmtId="177" formatCode="d"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="d"/>
+    <numFmt numFmtId="177" formatCode="####&quot;年&quot;"/>
     <numFmt numFmtId="178" formatCode="##&quot;月度&quot;"/>
   </numFmts>
   <fonts count="22">
@@ -170,36 +170,8 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -214,9 +186,60 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,6 +253,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,15 +268,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,59 +307,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -341,181 +341,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,56 +706,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -778,6 +728,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -788,6 +753,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -812,10 +812,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -824,133 +824,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -969,13 +969,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -984,10 +984,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1453,7 +1453,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18" customHeight="1"/>
@@ -1974,7 +1974,9 @@
       <c r="C10" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="29"/>
+      <c r="D10" s="25" t="s">
+        <v>13</v>
+      </c>
       <c r="E10" s="26"/>
       <c r="F10" s="26"/>
       <c r="G10" s="26"/>
@@ -1983,7 +1985,9 @@
       <c r="J10" s="45"/>
       <c r="K10" s="42"/>
       <c r="L10" s="46"/>
-      <c r="M10" s="45"/>
+      <c r="M10" s="42" t="s">
+        <v>14</v>
+      </c>
       <c r="N10" s="45"/>
       <c r="O10" s="27"/>
       <c r="P10" s="27"/>
@@ -2821,78 +2825,83 @@
     <mergeCell ref="D2:D4"/>
   </mergeCells>
   <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="0" priority="6">
+    <cfRule type="expression" dxfId="0" priority="7">
       <formula>C3=EOMONTH(C3,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="7">
+    <cfRule type="expression" dxfId="1" priority="8">
       <formula>DAY(C3)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:AJ4">
-    <cfRule type="cellIs" dxfId="2" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="15" operator="equal">
       <formula>"日"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="16" operator="equal">
       <formula>"土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="expression" dxfId="4" priority="11">
+    <cfRule type="expression" dxfId="4" priority="12">
       <formula>(MOD(WEEKDAY(A9),7)&lt;2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8">
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>OR(K$4="土",K$4="日")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9">
     <cfRule type="expression" dxfId="5" priority="2">
       <formula>OR(K$4="土",K$4="日")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L9">
+  <conditionalFormatting sqref="M10">
     <cfRule type="expression" dxfId="5" priority="1">
-      <formula>OR(K$4="土",K$4="日")</formula>
+      <formula>OR(L$4="土",L$4="日")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="expression" dxfId="5" priority="17">
+    <cfRule type="expression" dxfId="5" priority="18">
       <formula>OR(K$4="土",K$4="日")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
+    <cfRule type="expression" dxfId="5" priority="20">
+      <formula>OR(L$4="土",L$4="日")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M16">
+    <cfRule type="expression" dxfId="5" priority="4">
+      <formula>OR(L$4="土",L$4="日")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N16">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>OR(M$4="土",M$4="日")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N17">
+    <cfRule type="expression" dxfId="5" priority="21">
+      <formula>OR(M$4="土",M$4="日")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7:K8">
+    <cfRule type="expression" dxfId="5" priority="17">
+      <formula>OR(J$4="土",J$4="日")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M14:M15">
     <cfRule type="expression" dxfId="5" priority="19">
       <formula>OR(L$4="土",L$4="日")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M16">
-    <cfRule type="expression" dxfId="5" priority="3">
-      <formula>OR(L$4="土",L$4="日")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N16">
-    <cfRule type="expression" dxfId="5" priority="4">
-      <formula>OR(M$4="土",M$4="日")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N17">
-    <cfRule type="expression" dxfId="5" priority="20">
-      <formula>OR(M$4="土",M$4="日")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K7:K8">
-    <cfRule type="expression" dxfId="5" priority="16">
-      <formula>OR(J$4="土",J$4="日")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M14:M15">
-    <cfRule type="expression" dxfId="5" priority="18">
-      <formula>OR(L$4="土",L$4="日")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="O3:AH3 E3:N4 E5:I30 O5:AH30 J24:N30 O4:AJ4">
-    <cfRule type="expression" dxfId="5" priority="12">
+    <cfRule type="expression" dxfId="5" priority="13">
       <formula>OR(E$4="土",E$4="日")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L17:L23 J5:K6 J9:J13 J14:K23 K12:K13 K9:K10 L12 L5:L7 N5:N15 M18:N23 M5:M13">
-    <cfRule type="expression" dxfId="5" priority="5">
+  <conditionalFormatting sqref="L17:L23 J5:K6 J9:J13 J14:K23 K12:K13 K9:K10 L12 L5:L7 N5:N15 M18:N23 M5:M9 M11:M13">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>OR(J$4="土",J$4="日")</formula>
     </cfRule>
   </conditionalFormatting>
